--- a/IDH Municipal RENDA.xlsx
+++ b/IDH Municipal RENDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\sidewalk_service_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A876172D-11D6-4D1D-882C-0A80B31F8646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7B046C-CEA9-48D2-98D8-872DB09F3D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="10996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,30 +16,15 @@
     <sheet name="Dados Abertos" sheetId="1" r:id="rId1"/>
     <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Dados Abertos'!$C$33</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Dados Abertos'!$D$1:$D$32</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Chart!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Chart!$C$2:$C$33</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Chart!$B$2:$B$33</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Chart!$B$2:$C$33</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Chart!$C$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Chart!$C$2:$C$33</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Chart!$D$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Chart!$D$2:$D$33</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Chart!$A$2:$B$33</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Chart!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Dados Abertos'!$D$33</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Chart!$C$2:$C$33</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Dados Abertos'!$C$33:$D$33</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Dados Abertos'!$E$1:$E$32</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Dados Abertos'!$E$33</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Chart!$A$2:$A$33</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Chart!$A$2:$B$33</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Chart!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Chart!$B$2:$B$33</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2532,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09C0F74-3644-45F1-A20E-398663C54C8C}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
